--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3453.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3453.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.77502513364875</v>
+        <v>1.204854011535645</v>
       </c>
       <c r="B1">
-        <v>2.228892761506539</v>
+        <v>2.123377561569214</v>
       </c>
       <c r="C1">
-        <v>2.313222687484727</v>
+        <v>5.835978031158447</v>
       </c>
       <c r="D1">
-        <v>2.867414251807511</v>
+        <v>1.043137431144714</v>
       </c>
       <c r="E1">
-        <v>4.227501614083493</v>
+        <v>1.199688792228699</v>
       </c>
     </row>
   </sheetData>
